--- a/BranchDemo.xlsx
+++ b/BranchDemo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DB33F6-FDF8-4228-8A73-1A3FB218EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BBB8531-1790-499F-A621-FB0ED10B7E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="11">
   <si>
     <t>Gender</t>
   </si>
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C323"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3982,6 +3982,94 @@
         <v>2</v>
       </c>
     </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331" t="s">
+        <v>9</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BranchDemo.xlsx
+++ b/BranchDemo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B70DD547-FE19-4C59-90B7-E3227D2E3066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F52FC2D5-B704-40A7-A984-AFC4045E4826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="10">
   <si>
     <t>Gender</t>
   </si>
@@ -412,11 +412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C426"/>
+  <dimension ref="A1:C437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C317" sqref="C317"/>
+      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C435" sqref="C435:C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5112,6 +5112,127 @@
         <v>1</v>
       </c>
     </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>3</v>
+      </c>
+      <c r="B427" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>3</v>
+      </c>
+      <c r="B430" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>7</v>
+      </c>
+      <c r="B432" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>7</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B434" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>3</v>
+      </c>
+      <c r="B435" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>3</v>
+      </c>
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
